--- a/src/mapex/veris/attack-12.1/veris-1.3.7/enterprise/veris-1.3.7_attack-12.1-enterprise.xlsx
+++ b/src/mapex/veris/attack-12.1/veris-1.3.7/enterprise/veris-1.3.7_attack-12.1-enterprise.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>capability_group</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
